--- a/GDCT-driven/E.ModelImplementation/Results_Min_P_SG/comp_burn_SSCOPF_Min_P_SG.xlsx
+++ b/GDCT-driven/E.ModelImplementation/Results_Min_P_SG/comp_burn_SSCOPF_Min_P_SG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="2">
   <si>
     <t>time</t>
   </si>
@@ -84,7 +84,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.58902100000000002</v>
+        <v>0.78438889999999994</v>
       </c>
       <c r="B2" s="0">
         <v>10</v>
@@ -92,7 +92,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.093501299999999996</v>
+        <v>0.083121600000000004</v>
       </c>
       <c r="B3" s="0">
         <v>10</v>
@@ -100,7 +100,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0766429</v>
+        <v>0.055626099999999998</v>
       </c>
       <c r="B4" s="0">
         <v>10</v>
@@ -108,7 +108,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.14768419999999999</v>
+        <v>0.075672100000000006</v>
       </c>
       <c r="B5" s="0">
         <v>20</v>
@@ -116,7 +116,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.33146369999999997</v>
+        <v>0.22037370000000001</v>
       </c>
       <c r="B6" s="0">
         <v>20</v>
@@ -124,7 +124,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.13826869999999999</v>
+        <v>0.041960999999999998</v>
       </c>
       <c r="B7" s="0">
         <v>10</v>
@@ -132,7 +132,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.73406550000000004</v>
+        <v>0.24212739999999999</v>
       </c>
       <c r="B8" s="0">
         <v>17</v>
@@ -140,7 +140,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2034357</v>
+        <v>0.048767699999999997</v>
       </c>
       <c r="B9" s="0">
         <v>10</v>
@@ -148,7 +148,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.13522719999999999</v>
+        <v>0.028694999999999998</v>
       </c>
       <c r="B10" s="0">
         <v>10</v>
@@ -156,7 +156,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1024722</v>
+        <v>0.030744299999999999</v>
       </c>
       <c r="B11" s="0">
         <v>10</v>
@@ -164,7 +164,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.11743240000000001</v>
+        <v>0.025082699999999999</v>
       </c>
       <c r="B12" s="0">
         <v>10</v>
@@ -172,7 +172,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24262990000000001</v>
+        <v>0.059214599999999999</v>
       </c>
       <c r="B13" s="0">
         <v>20</v>
@@ -180,7 +180,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1214051</v>
+        <v>0.025215399999999999</v>
       </c>
       <c r="B14" s="0">
         <v>10</v>
@@ -188,7 +188,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.23814270000000001</v>
+        <v>0.0460355</v>
       </c>
       <c r="B15" s="0">
         <v>20</v>
@@ -196,7 +196,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.118834</v>
+        <v>0.025574300000000001</v>
       </c>
       <c r="B16" s="0">
         <v>10</v>
@@ -204,7 +204,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2421634</v>
+        <v>0.053535699999999999</v>
       </c>
       <c r="B17" s="0">
         <v>21</v>
@@ -212,7 +212,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.14028640000000001</v>
+        <v>0.043566899999999999</v>
       </c>
       <c r="B18" s="0">
         <v>10</v>
@@ -220,7 +220,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1139809</v>
+        <v>0.0270894</v>
       </c>
       <c r="B19" s="0">
         <v>10</v>
@@ -228,7 +228,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.12803220000000001</v>
+        <v>0.0282548</v>
       </c>
       <c r="B20" s="0">
         <v>10</v>
@@ -236,7 +236,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.11441510000000001</v>
+        <v>0.032468700000000003</v>
       </c>
       <c r="B21" s="0">
         <v>10</v>
@@ -244,7 +244,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.21149029999999999</v>
+        <v>0.0548516</v>
       </c>
       <c r="B22" s="0">
         <v>20</v>
@@ -252,7 +252,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.26197290000000001</v>
+        <v>0.060507999999999999</v>
       </c>
       <c r="B23" s="0">
         <v>20</v>
@@ -260,7 +260,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.43035990000000002</v>
+        <v>0.090416800000000005</v>
       </c>
       <c r="B24" s="0">
         <v>18</v>
@@ -268,7 +268,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.18213940000000001</v>
+        <v>0.052378099999999997</v>
       </c>
       <c r="B25" s="0">
         <v>20</v>
@@ -276,7 +276,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.12962000000000001</v>
+        <v>0.038708699999999999</v>
       </c>
       <c r="B26" s="0">
         <v>12</v>
@@ -284,7 +284,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1167714</v>
+        <v>0.030765000000000001</v>
       </c>
       <c r="B27" s="0">
         <v>10</v>
@@ -292,7 +292,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.099630200000000002</v>
+        <v>0.0248355</v>
       </c>
       <c r="B28" s="0">
         <v>10</v>
@@ -300,7 +300,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.21783620000000001</v>
+        <v>0.057193099999999997</v>
       </c>
       <c r="B29" s="0">
         <v>20</v>
@@ -308,7 +308,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.23765140000000001</v>
+        <v>0.045465199999999997</v>
       </c>
       <c r="B30" s="0">
         <v>20</v>
@@ -316,7 +316,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.1182373</v>
+        <v>0.025210699999999999</v>
       </c>
       <c r="B31" s="0">
         <v>10</v>
@@ -324,7 +324,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.40552899999999997</v>
+        <v>0.1055953</v>
       </c>
       <c r="B32" s="0">
         <v>30</v>
@@ -332,7 +332,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0915411</v>
+        <v>0.024754499999999999</v>
       </c>
       <c r="B33" s="0">
         <v>10</v>
@@ -340,7 +340,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.19400500000000001</v>
+        <v>0.049499300000000003</v>
       </c>
       <c r="B34" s="0">
         <v>20</v>
@@ -348,7 +348,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.096018099999999995</v>
+        <v>0.023777699999999999</v>
       </c>
       <c r="B35" s="0">
         <v>10</v>
@@ -356,7 +356,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.085080900000000001</v>
+        <v>0.025822999999999999</v>
       </c>
       <c r="B36" s="0">
         <v>10</v>
@@ -364,7 +364,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.1879836</v>
+        <v>0.054414799999999999</v>
       </c>
       <c r="B37" s="0">
         <v>20</v>
@@ -372,7 +372,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.106101</v>
+        <v>0.024814800000000001</v>
       </c>
       <c r="B38" s="0">
         <v>10</v>
@@ -380,7 +380,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.1047439</v>
+        <v>0.023472199999999999</v>
       </c>
       <c r="B39" s="0">
         <v>10</v>
@@ -388,7 +388,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.17265140000000001</v>
+        <v>0.044158299999999998</v>
       </c>
       <c r="B40" s="0">
         <v>20</v>
@@ -396,7 +396,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.10802589999999999</v>
+        <v>0.026132499999999999</v>
       </c>
       <c r="B41" s="0">
         <v>10</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.17644209999999999</v>
+        <v>0.043393399999999999</v>
       </c>
       <c r="B42" s="0">
         <v>20</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.33034590000000003</v>
+        <v>0.088514599999999999</v>
       </c>
       <c r="B43" s="0">
         <v>17</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.11754050000000001</v>
+        <v>0.044200999999999997</v>
       </c>
       <c r="B44" s="0">
         <v>10</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.11486689999999999</v>
+        <v>0.028043200000000001</v>
       </c>
       <c r="B45" s="0">
         <v>10</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.2142559</v>
+        <v>0.055919799999999999</v>
       </c>
       <c r="B46" s="0">
         <v>20</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.20436070000000001</v>
+        <v>0.049830199999999998</v>
       </c>
       <c r="B47" s="0">
         <v>20</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.24297859999999999</v>
+        <v>0.054406900000000001</v>
       </c>
       <c r="B48" s="0">
         <v>20</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.37012810000000002</v>
+        <v>0.095283800000000002</v>
       </c>
       <c r="B49" s="0">
         <v>18</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.10335</v>
+        <v>0.039927400000000002</v>
       </c>
       <c r="B50" s="0">
         <v>10</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.10335800000000001</v>
+        <v>0.024561300000000001</v>
       </c>
       <c r="B51" s="0">
         <v>10</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.098346000000000003</v>
+        <v>0.023116000000000001</v>
       </c>
       <c r="B52" s="0">
         <v>10</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.1066554</v>
+        <v>0.025549599999999999</v>
       </c>
       <c r="B53" s="0">
         <v>10</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.29199059999999999</v>
+        <v>0.069189899999999999</v>
       </c>
       <c r="B54" s="0">
         <v>18</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.18474460000000001</v>
+        <v>0.044180700000000003</v>
       </c>
       <c r="B55" s="0">
         <v>20</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.20554639999999999</v>
+        <v>0.059368299999999999</v>
       </c>
       <c r="B56" s="0">
         <v>15</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.052900599999999999</v>
+        <v>0.0276495</v>
       </c>
       <c r="B57" s="0">
         <v>10</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.046776400000000003</v>
+        <v>0.029635100000000001</v>
       </c>
       <c r="B58" s="0">
         <v>10</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.15881149999999999</v>
+        <v>0.044315100000000003</v>
       </c>
       <c r="B59" s="0">
         <v>20</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.034787100000000001</v>
+        <v>0.023789999999999999</v>
       </c>
       <c r="B60" s="0">
         <v>10</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.043157500000000001</v>
+        <v>0.027734999999999999</v>
       </c>
       <c r="B61" s="0">
         <v>10</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.071168300000000004</v>
+        <v>0.044126600000000002</v>
       </c>
       <c r="B62" s="0">
         <v>20</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.034496300000000001</v>
+        <v>0.024900599999999998</v>
       </c>
       <c r="B63" s="0">
         <v>10</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.033512699999999999</v>
+        <v>0.027661000000000002</v>
       </c>
       <c r="B64" s="0">
         <v>10</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.032041300000000002</v>
+        <v>0.023672700000000001</v>
       </c>
       <c r="B65" s="0">
         <v>10</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.066001599999999994</v>
+        <v>0.046597</v>
       </c>
       <c r="B66" s="0">
         <v>21</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.0289535</v>
+        <v>0.0246257</v>
       </c>
       <c r="B67" s="0">
         <v>10</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.045893999999999997</v>
+        <v>0.027462</v>
       </c>
       <c r="B68" s="0">
         <v>10</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.038651400000000002</v>
+        <v>0.036458699999999997</v>
       </c>
       <c r="B69" s="0">
         <v>10</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.050045600000000003</v>
+        <v>0.037252399999999998</v>
       </c>
       <c r="B70" s="0">
         <v>10</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.052007600000000001</v>
+        <v>0.044246199999999999</v>
       </c>
       <c r="B71" s="0">
         <v>20</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.064849199999999996</v>
+        <v>0.0475714</v>
       </c>
       <c r="B72" s="0">
         <v>21</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.1239217</v>
+        <v>0.065818699999999994</v>
       </c>
       <c r="B73" s="0">
         <v>21</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.11474959999999999</v>
+        <v>0.068792699999999998</v>
       </c>
       <c r="B74" s="0">
         <v>20</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.070420099999999999</v>
+        <v>0.061027199999999997</v>
       </c>
       <c r="B75" s="0">
         <v>21</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.095128299999999999</v>
+        <v>0.048907399999999997</v>
       </c>
       <c r="B76" s="0">
         <v>20</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.069372299999999998</v>
+        <v>0.027475099999999999</v>
       </c>
       <c r="B77" s="0">
         <v>10</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.16438159999999999</v>
+        <v>0.1157387</v>
       </c>
       <c r="B78" s="0">
         <v>31</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.053892299999999997</v>
+        <v>0.043987400000000003</v>
       </c>
       <c r="B79" s="0">
         <v>20</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.057278099999999998</v>
+        <v>0.043985900000000001</v>
       </c>
       <c r="B80" s="0">
         <v>20</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.0322449</v>
+        <v>0.0237535</v>
       </c>
       <c r="B81" s="0">
         <v>10</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.0283138</v>
+        <v>0.022648000000000001</v>
       </c>
       <c r="B82" s="0">
         <v>10</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.031441499999999997</v>
+        <v>0.025724199999999999</v>
       </c>
       <c r="B83" s="0">
         <v>10</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.17273520000000001</v>
+        <v>0.1202029</v>
       </c>
       <c r="B84" s="0">
         <v>29</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.051303099999999997</v>
+        <v>0.025469800000000001</v>
       </c>
       <c r="B85" s="0">
         <v>10</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.035513599999999999</v>
+        <v>0.024698700000000001</v>
       </c>
       <c r="B86" s="0">
         <v>10</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.0987957</v>
+        <v>0.0469703</v>
       </c>
       <c r="B87" s="0">
         <v>20</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.0305659</v>
+        <v>0.0245153</v>
       </c>
       <c r="B88" s="0">
         <v>10</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.030736599999999999</v>
+        <v>0.024099599999999999</v>
       </c>
       <c r="B89" s="0">
         <v>10</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.1333375</v>
+        <v>0.081046599999999996</v>
       </c>
       <c r="B90" s="0">
         <v>19</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.071340000000000001</v>
+        <v>0.060552700000000001</v>
       </c>
       <c r="B91" s="0">
         <v>20</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.032410799999999997</v>
+        <v>0.023987999999999999</v>
       </c>
       <c r="B92" s="0">
         <v>10</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.044460699999999999</v>
+        <v>0.025424800000000001</v>
       </c>
       <c r="B93" s="0">
         <v>10</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.16903550000000001</v>
+        <v>0.080372200000000005</v>
       </c>
       <c r="B94" s="0">
         <v>23</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.1093759</v>
+        <v>0.046382800000000002</v>
       </c>
       <c r="B95" s="0">
         <v>20</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.1177349</v>
+        <v>0.0489425</v>
       </c>
       <c r="B96" s="0">
         <v>20</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.1262839</v>
+        <v>0.026910099999999999</v>
       </c>
       <c r="B97" s="0">
         <v>10</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.19931699999999999</v>
+        <v>0.046002800000000003</v>
       </c>
       <c r="B98" s="0">
         <v>20</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.17142060000000001</v>
+        <v>0.043785999999999999</v>
       </c>
       <c r="B99" s="0">
         <v>20</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.2490792</v>
+        <v>0.060870300000000002</v>
       </c>
       <c r="B100" s="0">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.16770199999999999</v>
+        <v>0.042979999999999997</v>
       </c>
       <c r="B101" s="0">
         <v>20</v>
